--- a/Casos de prueba/TC-2.1.xlsx
+++ b/Casos de prueba/TC-2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\UADE\Testing de aplicaciones\TPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BA3942-83D2-4444-A296-DB6D87F2D2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59681B08-30BB-42E9-A511-FE94EFDADA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4710" windowWidth="7500" windowHeight="7680" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -110,15 +110,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
-    <t>Tester: Jane Williams</t>
-  </si>
-  <si>
-    <t>Tester:</t>
-  </si>
-  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -152,15 +143,9 @@
     <t>Credential can be entered</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Defects Created</t>
   </si>
   <si>
-    <t>DF-001: Home page is not displayed upon logging in</t>
-  </si>
-  <si>
     <t>Last name: jonson</t>
   </si>
   <si>
@@ -219,6 +204,18 @@
   </si>
   <si>
     <t>correct registration</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Tester: Mike Smith</t>
+  </si>
+  <si>
+    <t>Tester: Jane Walters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester:Thomas Hamingway </t>
   </si>
 </sst>
 </file>
@@ -645,7 +642,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -768,12 +765,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -784,63 +841,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C131FF-319E-B24F-9C88-6F9908C3E8E9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="169" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,10 +1185,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="63"/>
+      <c r="D1" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1198,19 +1198,19 @@
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1299,13 +1299,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1338,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1381,28 +1381,28 @@
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="B22" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="55"/>
+      <c r="B24" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="63"/>
       <c r="D24" s="19" t="s">
         <v>18</v>
       </c>
@@ -1414,221 +1414,227 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="56" t="s">
+      <c r="H26" s="49"/>
+      <c r="I26" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="56" t="s">
+      <c r="J26" s="49"/>
+      <c r="K26" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="56" t="s">
+      <c r="L26" s="49"/>
+      <c r="M26" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="57"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" spans="1:14" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>1</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="G27" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="57"/>
+      <c r="B27" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="G27" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="43"/>
+      <c r="B28" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="55"/>
       <c r="G28" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>3</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="B29" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
       <c r="G29" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="N29" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>4</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
+      <c r="B30" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
       <c r="G30" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>31</v>
+      </c>
       <c r="N30" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>5</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="G31" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>31</v>
+      </c>
       <c r="N31" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>6</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="47"/>
+      <c r="B32" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="67"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
@@ -1660,35 +1666,33 @@
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G36" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J36" s="27"/>
       <c r="K36" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L36" s="27"/>
       <c r="M36" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
-      <c r="I37" s="26" t="s">
-        <v>40</v>
-      </c>
+      <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
@@ -1737,18 +1741,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B22:E23"/>
@@ -1756,13 +1755,18 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1770,6 +1774,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1901,22 +1920,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1932,21 +1953,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Casos de prueba/TC-2.1.xlsx
+++ b/Casos de prueba/TC-2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59681B08-30BB-42E9-A511-FE94EFDADA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F41A657-B68E-456D-B029-CF821EB35686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="4710" yWindow="4710" windowWidth="7500" windowHeight="7680" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Not executed</t>
-  </si>
-  <si>
     <t>Credential can be entered</t>
   </si>
   <si>
@@ -215,7 +212,7 @@
     <t>Tester: Jane Walters</t>
   </si>
   <si>
-    <t xml:space="preserve">Tester:Thomas Hamingway </t>
+    <t xml:space="preserve">Tester: Thomas Hamingway </t>
   </si>
 </sst>
 </file>
@@ -768,6 +765,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -781,66 +838,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1163,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C131FF-319E-B24F-9C88-6F9908C3E8E9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="169" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="H24" zoomScale="116" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,6 +1170,7 @@
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1185,10 +1183,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="44"/>
+      <c r="D1" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1198,19 +1196,19 @@
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1277,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1299,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1317,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1329,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1338,7 +1336,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1346,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1354,7 +1352,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1362,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1381,28 +1379,28 @@
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
+      <c r="B22" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="63"/>
+      <c r="B24" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="56"/>
       <c r="D24" s="19" t="s">
         <v>18</v>
       </c>
@@ -1414,16 +1412,16 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="67"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
@@ -1437,62 +1435,62 @@
         <v>26</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="48" t="s">
+      <c r="H26" s="58"/>
+      <c r="I26" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="48" t="s">
+      <c r="J26" s="58"/>
+      <c r="K26" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="48" t="s">
+      <c r="L26" s="58"/>
+      <c r="M26" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="49"/>
+      <c r="N26" s="58"/>
     </row>
     <row r="27" spans="1:14" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>1</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="54" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="G27" s="48" t="s">
+      <c r="E27" s="44"/>
+      <c r="G27" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="48" t="s">
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" s="49"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="55"/>
+      <c r="B28" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="44"/>
       <c r="G28" s="11" t="s">
         <v>27</v>
       </c>
@@ -1522,12 +1520,12 @@
       <c r="A29" s="15">
         <v>3</v>
       </c>
-      <c r="B29" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="B29" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
       <c r="G29" s="13" t="s">
         <v>31</v>
       </c>
@@ -1550,19 +1548,19 @@
         <v>31</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>4</v>
       </c>
-      <c r="B30" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="B30" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
       <c r="G30" s="13" t="s">
         <v>31</v>
       </c>
@@ -1585,19 +1583,19 @@
         <v>31</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>5</v>
       </c>
-      <c r="B31" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="B31" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
       <c r="G31" s="13" t="s">
         <v>31</v>
       </c>
@@ -1608,7 +1606,7 @@
         <v>31</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>31</v>
@@ -1620,21 +1618,21 @@
         <v>31</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>6</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="67"/>
+      <c r="E32" s="48"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
@@ -1666,26 +1664,26 @@
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G36" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J36" s="27"/>
       <c r="K36" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L36" s="27"/>
       <c r="M36" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N36" s="27"/>
     </row>
@@ -1741,6 +1739,25 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B31:C31"/>
@@ -1748,25 +1765,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1774,18 +1772,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1921,18 +1919,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Casos de prueba/TC-2.1.xlsx
+++ b/Casos de prueba/TC-2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F41A657-B68E-456D-B029-CF821EB35686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B604D35-C973-4037-B288-8A6C1A743BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4710" windowWidth="7500" windowHeight="7680" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-105" yWindow="2040" windowWidth="7500" windowHeight="7680" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Country: US</t>
   </si>
   <si>
-    <t>Verify customer registration after entering a valid date</t>
-  </si>
-  <si>
     <t>Create acount</t>
   </si>
   <si>
@@ -206,13 +203,19 @@
     <t>pass</t>
   </si>
   <si>
-    <t>Tester: Mike Smith</t>
-  </si>
-  <si>
-    <t>Tester: Jane Walters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester: Thomas Hamingway </t>
+    <t>Tester: Camila sturlesi</t>
+  </si>
+  <si>
+    <t>Tester: Lucas Argerich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester: Martina Degui </t>
+  </si>
+  <si>
+    <t>Tester: Sebastian Deina</t>
+  </si>
+  <si>
+    <t>Verify customer registration after entering all the required information</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -631,6 +634,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -639,7 +655,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -765,12 +781,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -783,61 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C131FF-319E-B24F-9C88-6F9908C3E8E9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" zoomScale="116" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,6 +1189,7 @@
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1183,10 +1203,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="D1" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1196,19 +1216,19 @@
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1289,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1297,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -1379,28 +1399,28 @@
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="56"/>
+      <c r="B24" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="63"/>
       <c r="D24" s="19" t="s">
         <v>18</v>
       </c>
@@ -1412,16 +1432,16 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="67"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
@@ -1435,62 +1455,64 @@
         <v>26</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="57" t="s">
+      <c r="H26" s="49"/>
+      <c r="I26" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="57" t="s">
+      <c r="J26" s="49"/>
+      <c r="K26" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="57" t="s">
+      <c r="L26" s="49"/>
+      <c r="M26" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="58"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" spans="1:14" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>1</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="G27" s="57" t="s">
+      <c r="E27" s="55"/>
+      <c r="G27" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="50"/>
+      <c r="K27" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="49"/>
+      <c r="M27" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="58"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43" t="s">
+      <c r="B28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="55"/>
       <c r="G28" s="11" t="s">
         <v>27</v>
       </c>
@@ -1520,12 +1542,12 @@
       <c r="A29" s="15">
         <v>3</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
       <c r="G29" s="13" t="s">
         <v>31</v>
       </c>
@@ -1555,12 +1577,12 @@
       <c r="A30" s="15">
         <v>4</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
+      <c r="B30" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
       <c r="G30" s="13" t="s">
         <v>31</v>
       </c>
@@ -1590,12 +1612,12 @@
       <c r="A31" s="15">
         <v>5</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
+      <c r="B31" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="G31" s="13" t="s">
         <v>31</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>31</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>31</v>
@@ -1625,14 +1647,14 @@
       <c r="A32" s="37">
         <v>6</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="67"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
@@ -1664,8 +1686,8 @@
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
@@ -1738,19 +1760,14 @@
       <c r="N41" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B27:C27"/>
+  <mergeCells count="27">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B22:E23"/>
@@ -1758,13 +1775,19 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1772,21 +1795,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1918,24 +1926,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1951,4 +1957,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Casos de prueba/TC-2.1.xlsx
+++ b/Casos de prueba/TC-2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B604D35-C973-4037-B288-8A6C1A743BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510CF1EE-1F15-4A7A-8B4B-EA8B23607736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="2040" windowWidth="7500" windowHeight="7680" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta" sheetId="5" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Automation Status</t>
   </si>
   <si>
-    <t>Not Automated</t>
-  </si>
-  <si>
     <t>Regression 1</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Verify customer registration after entering all the required information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automated</t>
   </si>
 </sst>
 </file>
@@ -781,6 +781,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -794,69 +857,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C131FF-319E-B24F-9C88-6F9908C3E8E9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,10 +1203,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="44"/>
+      <c r="D1" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1216,19 +1216,19 @@
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1317,13 +1317,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1356,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1399,262 +1399,262 @@
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
+      <c r="B22" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="63"/>
+      <c r="B24" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="56"/>
       <c r="D24" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="68"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>24</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>25</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="58"/>
+      <c r="I26" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="48" t="s">
+      <c r="J26" s="58"/>
+      <c r="K26" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="48" t="s">
+      <c r="L26" s="58"/>
+      <c r="M26" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="49"/>
+      <c r="N26" s="58"/>
     </row>
     <row r="27" spans="1:14" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>1</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="G27" s="48" t="s">
+      <c r="E27" s="44"/>
+      <c r="G27" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="58"/>
+      <c r="M27" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="49"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="55"/>
+      <c r="B28" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="44"/>
       <c r="G28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="I28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="K28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="M28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>3</v>
       </c>
-      <c r="B29" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="B29" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
       <c r="G29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="I29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="K29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="M29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>4</v>
       </c>
-      <c r="B30" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="B30" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
       <c r="G30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="I30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="K30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="M30" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>5</v>
       </c>
-      <c r="B31" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="B31" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
       <c r="G31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="I31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="13" t="s">
+      <c r="M31" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>6</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="67"/>
+      <c r="E32" s="48"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
@@ -1686,26 +1686,26 @@
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G36" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J36" s="27"/>
       <c r="K36" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L36" s="27"/>
       <c r="M36" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N36" s="27"/>
     </row>
@@ -1761,6 +1761,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B31:C31"/>
@@ -1768,26 +1788,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1795,6 +1795,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1926,12 +1932,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1942,6 +1942,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1959,15 +1968,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>

--- a/Casos de prueba/TC-2.1.xlsx
+++ b/Casos de prueba/TC-2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510CF1EE-1F15-4A7A-8B4B-EA8B23607736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CBBD97-00AA-4612-ADC0-9CAA27A54EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -128,42 +128,15 @@
     <t>Site should open</t>
   </si>
   <si>
-    <t>As Expected</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Credential can be entered</t>
   </si>
   <si>
     <t>Defects Created</t>
   </si>
   <si>
-    <t>Last name: jonson</t>
-  </si>
-  <si>
-    <t>Password: 1q2w3e4r5t</t>
-  </si>
-  <si>
     <t>Date of birth: 11/10/1999</t>
   </si>
   <si>
-    <t>Address: 123 Central Park</t>
-  </si>
-  <si>
-    <t>City: NY</t>
-  </si>
-  <si>
-    <t>State: NY</t>
-  </si>
-  <si>
-    <t>Postal Code: 10001</t>
-  </si>
-  <si>
-    <t>Country: US</t>
-  </si>
-  <si>
     <t>Create acount</t>
   </si>
   <si>
@@ -179,27 +152,12 @@
     <t>Test Registration Functionality in Banking</t>
   </si>
   <si>
-    <t>Email: cjonson@uade.edu.ar</t>
-  </si>
-  <si>
-    <t>First name: cami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 &lt;= user </t>
-  </si>
-  <si>
     <t xml:space="preserve">name, last name, email, password, birth date, address, city, state, postal code, country. </t>
   </si>
   <si>
-    <t>Expected result of user registration</t>
-  </si>
-  <si>
     <t>correct registration</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>Tester: Camila sturlesi</t>
   </si>
   <si>
@@ -216,13 +174,55 @@
   </si>
   <si>
     <t xml:space="preserve"> Automated</t>
+  </si>
+  <si>
+    <t>Not as expected</t>
+  </si>
+  <si>
+    <t>Not As Expected</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>BadRequestKeyError</t>
+  </si>
+  <si>
+    <t>no nos deja registrar</t>
+  </si>
+  <si>
+    <t>First name: pru</t>
+  </si>
+  <si>
+    <t>Last name: eba</t>
+  </si>
+  <si>
+    <t>Email: prueba@gmail.com</t>
+  </si>
+  <si>
+    <t>Password:prueba</t>
+  </si>
+  <si>
+    <t>Address: prueba</t>
+  </si>
+  <si>
+    <t>City:prueba</t>
+  </si>
+  <si>
+    <t>State: prueba</t>
+  </si>
+  <si>
+    <t>Postal Code: 7777</t>
+  </si>
+  <si>
+    <t>Country: prueba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +326,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -655,7 +662,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -781,6 +788,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -792,12 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1177,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C131FF-319E-B24F-9C88-6F9908C3E8E9}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,6 +1197,9 @@
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
@@ -1203,10 +1214,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="65"/>
+      <c r="D1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1216,19 +1227,19 @@
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1295,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,21 +1320,19 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1335,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1347,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1356,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1364,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1372,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1380,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1399,49 +1408,49 @@
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="56"/>
+      <c r="B24" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="57"/>
       <c r="D24" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="69"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
@@ -1455,64 +1464,64 @@
         <v>25</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="57" t="s">
+      <c r="H26" s="59"/>
+      <c r="I26" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="57" t="s">
+      <c r="J26" s="59"/>
+      <c r="K26" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="57" t="s">
+      <c r="L26" s="59"/>
+      <c r="M26" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="58"/>
+      <c r="N26" s="59"/>
     </row>
     <row r="27" spans="1:14" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>1</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="G27" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" s="58"/>
+      <c r="E27" s="47"/>
+      <c r="G27" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="59"/>
+      <c r="I27" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="59"/>
+      <c r="M27" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="59"/>
     </row>
     <row r="28" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="44"/>
+      <c r="B28" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="47"/>
       <c r="G28" s="11" t="s">
         <v>26</v>
       </c>
@@ -1542,119 +1551,115 @@
       <c r="A29" s="15">
         <v>3</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
       <c r="G29" s="13" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>4</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="G30" s="13" t="s">
-        <v>30</v>
+      <c r="B30" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="G30" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>5</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="G31" s="13" t="s">
-        <v>30</v>
+      <c r="B31" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="G31" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M31" s="42" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
-        <v>6</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="48"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
@@ -1662,7 +1667,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="3"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="3"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="5"/>
@@ -1686,26 +1691,26 @@
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G36" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J36" s="27"/>
       <c r="K36" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L36" s="27"/>
       <c r="M36" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N36" s="27"/>
     </row>
@@ -1758,6 +1763,14 @@
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
+    </row>
+    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="G43" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -1790,17 +1803,11 @@
     <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1932,7 +1939,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1941,16 +1948,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1968,10 +1972,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Casos de prueba/TC-2.1.xlsx
+++ b/Casos de prueba/TC-2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CBBD97-00AA-4612-ADC0-9CAA27A54EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54ACD72-0D04-4303-85CD-CED16AAC3CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Verify customer registration after entering all the required information</t>
   </si>
   <si>
-    <t xml:space="preserve"> Automated</t>
-  </si>
-  <si>
     <t>Not as expected</t>
   </si>
   <si>
@@ -216,6 +213,15 @@
   </si>
   <si>
     <t>Country: prueba</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As Expected</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -789,83 +795,86 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1187,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C131FF-319E-B24F-9C88-6F9908C3E8E9}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,10 +1223,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="66"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1227,19 +1236,19 @@
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1306,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1332,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1356,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1365,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1373,7 +1382,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1381,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1389,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1408,49 +1417,49 @@
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="69"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
@@ -1464,64 +1473,64 @@
         <v>25</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="58" t="s">
+      <c r="H26" s="51"/>
+      <c r="I26" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="58" t="s">
+      <c r="J26" s="51"/>
+      <c r="K26" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="58" t="s">
+      <c r="L26" s="51"/>
+      <c r="M26" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="59"/>
+      <c r="N26" s="51"/>
     </row>
     <row r="27" spans="1:14" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>1</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="46" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="G27" s="58" t="s">
+      <c r="E27" s="56"/>
+      <c r="G27" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="58" t="s">
+      <c r="H27" s="51"/>
+      <c r="I27" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64" t="s">
+      <c r="J27" s="57"/>
+      <c r="K27" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="58" t="s">
+      <c r="L27" s="51"/>
+      <c r="M27" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="N27" s="59"/>
+      <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="47"/>
+      <c r="E28" s="56"/>
       <c r="G28" s="11" t="s">
         <v>26</v>
       </c>
@@ -1551,115 +1560,115 @@
       <c r="A29" s="15">
         <v>3</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
       <c r="G29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="13" t="s">
+      <c r="N29" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>4</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
       <c r="G30" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="42" t="s">
+      <c r="N30" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>5</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="44" t="s">
+      <c r="C31" s="69"/>
+      <c r="D31" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="68"/>
       <c r="G31" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="42" t="s">
+      <c r="N31" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
@@ -1691,8 +1700,8 @@
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
@@ -1766,20 +1775,28 @@
     </row>
     <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="G43" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" t="s">
         <v>49</v>
-      </c>
-      <c r="I43" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="B3:C3"/>
@@ -1787,20 +1804,12 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
@@ -1808,6 +1817,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1939,15 +1957,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1955,6 +1964,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1972,14 +1989,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>

--- a/Casos de prueba/TC-2.1.xlsx
+++ b/Casos de prueba/TC-2.1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/Documents/GitHub/TestingAplicaciones-FFC-TPO/Casos de prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54ACD72-0D04-4303-85CD-CED16AAC3CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF7FFD-8FC7-E842-A874-15E99281E210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta" sheetId="5" r:id="rId1"/>
+    <sheet name="Report-Error" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -222,13 +223,70 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open the application page https://demo.opencart.com/ </t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>saves the changes but not redirect to main menu</t>
+  </si>
+  <si>
+    <t>when you want to save the changes in "edit perfile"</t>
+  </si>
+  <si>
+    <t>2- go to "hello sample"</t>
+  </si>
+  <si>
+    <t>3- go to "edit perfile"</t>
+  </si>
+  <si>
+    <t>4- edit the information</t>
+  </si>
+  <si>
+    <t>5- click on "save"</t>
+  </si>
+  <si>
+    <t>a sing with the new information is displayed, return to main manu</t>
+  </si>
+  <si>
+    <t>accept the changes, but stay in the same page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +397,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +435,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -660,6 +739,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -668,7 +806,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -798,6 +936,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -813,73 +1014,43 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C558A088-66ED-4D97-B86E-4769E988BE41}"/>
     <cellStyle name="Note 2" xfId="2" xr:uid="{4BAC1941-5BF2-43E8-B9DC-8FEA0AFAB3F9}"/>
@@ -898,7 +1069,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1196,24 +1367,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C131FF-319E-B24F-9C88-6F9908C3E8E9}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1223,12 +1394,12 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1236,19 +1407,19 @@
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="54"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="63"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1432,7 @@
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1272,7 +1443,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1467,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D6" s="4">
         <v>1</v>
       </c>
@@ -1304,7 +1475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1332,7 +1503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>2</v>
       </c>
@@ -1344,7 +1515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>3</v>
       </c>
@@ -1356,7 +1527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>4</v>
       </c>
@@ -1369,7 +1540,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D12" s="4">
         <v>7</v>
       </c>
@@ -1377,7 +1548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D13" s="4">
         <v>8</v>
       </c>
@@ -1385,7 +1556,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D14" s="4">
         <v>9</v>
       </c>
@@ -1393,7 +1564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D15" s="4">
         <v>10</v>
       </c>
@@ -1401,44 +1572,44 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D19" s="39"/>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D20" s="39"/>
       <c r="E20" s="41"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-    </row>
-    <row r="24" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+    </row>
+    <row r="24" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="66"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="19" t="s">
         <v>18</v>
       </c>
@@ -1446,22 +1617,22 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="49"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="70"/>
+    </row>
+    <row r="26" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>23</v>
       </c>
@@ -1473,64 +1644,64 @@
         <v>25</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="50" t="s">
+      <c r="H26" s="60"/>
+      <c r="I26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="50" t="s">
+      <c r="J26" s="60"/>
+      <c r="K26" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="50" t="s">
+      <c r="L26" s="60"/>
+      <c r="M26" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="51"/>
-    </row>
-    <row r="27" spans="1:14" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="60"/>
+    </row>
+    <row r="27" spans="1:14" ht="47" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>1</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="55" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="G27" s="50" t="s">
+      <c r="E27" s="48"/>
+      <c r="G27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="50" t="s">
+      <c r="H27" s="60"/>
+      <c r="I27" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58" t="s">
+      <c r="J27" s="64"/>
+      <c r="K27" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="50" t="s">
+      <c r="L27" s="60"/>
+      <c r="M27" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="N27" s="51"/>
-    </row>
-    <row r="28" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="60"/>
+    </row>
+    <row r="28" spans="1:14" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>2</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="55" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="56"/>
+      <c r="E28" s="48"/>
       <c r="G28" s="11" t="s">
         <v>26</v>
       </c>
@@ -1556,16 +1727,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>3</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
       <c r="G29" s="13" t="s">
         <v>45</v>
       </c>
@@ -1591,16 +1762,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>4</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
       <c r="G30" s="42" t="s">
         <v>45</v>
       </c>
@@ -1626,18 +1797,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>5</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="67" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="68"/>
+      <c r="E31" s="46"/>
       <c r="G31" s="42" t="s">
         <v>45</v>
       </c>
@@ -1663,12 +1834,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
@@ -1678,7 +1849,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="5"/>
       <c r="H33" s="3"/>
       <c r="I33" s="5"/>
@@ -1688,7 +1859,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G34" s="5"/>
       <c r="H34" s="3"/>
       <c r="I34" s="5"/>
@@ -1698,14 +1869,14 @@
       <c r="M34" s="5"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G36" s="27" t="s">
         <v>31</v>
       </c>
@@ -1723,7 +1894,7 @@
       </c>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
@@ -1733,7 +1904,7 @@
       <c r="M37" s="26"/>
       <c r="N37" s="26"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
@@ -1743,7 +1914,7 @@
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
@@ -1753,7 +1924,7 @@
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
@@ -1763,7 +1934,7 @@
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
@@ -1773,7 +1944,7 @@
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
     </row>
-    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="G43" s="43" t="s">
         <v>48</v>
       </c>
@@ -1783,6 +1954,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B31:C31"/>
@@ -1790,39 +1981,172 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B401E6-9F00-7C48-99F3-48D2A98D99DC}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="77"/>
+      <c r="B6" s="78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="76"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="83"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="82"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="82"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="84"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="87"/>
+      <c r="B24" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1958,15 +2282,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1990,10 +2318,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>